--- a/IRMA/MulVAL to MITRE-for IRMA.xlsx
+++ b/IRMA/MulVAL to MITRE-for IRMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phd\MulVAL-MITRE\Helper\MulVAL-MITRE\IRMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF9C33-B1A3-481C-B15F-9EC0094F6864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F76FAF3-98DB-4358-8FF6-49648D4317B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="585" windowWidth="28005" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="792">
   <si>
     <t>#</t>
   </si>
@@ -73,23 +73,9 @@
 Program is the full path of the executable that contains the security bug.</t>
   </si>
   <si>
-    <t>vulExists(Host, Prog, Range, Consequence):-  %%Advisory
-  vulExists(Host, ID, Prog),
-  vulProperty(ID, Range, Consequence).</t>
-  </si>
-  <si>
     <t>Derived Environment Rule</t>
   </si>
   <si>
-    <t>vulExists(Host, Prog, Range, Consequence):-  %%Hypothetical Bug
-  bugHyp(Host, Prog, Range, Consequence).</t>
-  </si>
-  <si>
-    <t>vulExists(Host, Prog, Range, Consequence):-  %%Library Bug
-  vulExists(Host, Library, Range, Consequence),
-  dependsOn(Host, Prog, Library).</t>
-  </si>
-  <si>
     <t>vulExists(Host, ID, Program)</t>
   </si>
   <si>
@@ -133,11 +119,6 @@
   </si>
   <si>
     <t>principal Prin can execute arbitrary code with privilege UserPriv on machine Host.</t>
-  </si>
-  <si>
-    <t>%%Account user can execute arbitrary code
-execCode(Prin, Host, Perm) :-
-  hasAccount(Prin, Host, Perm).</t>
   </si>
   <si>
     <t>This interaction rule models "Insider threat". It's not modeled in MITRE ATT&amp;CK technique.</t>
@@ -590,16 +571,6 @@
   </si>
   <si>
     <t>principal Prin can send packets from machine Src to Port on machine Dst through Protocol.</t>
-  </si>
-  <si>
-    <t>netAccess(Prin, Src, Dst, Protocol, Port) :-  %%Multi-hop
-  execCode(Prin, Src, _User),
-  hacl(Src, Dst, Protocol, Port).</t>
-  </si>
-  <si>
-    <t>netAccess(Prin, Host, Protocol, Port) :-  %%Direct access
-  located(Prin, Zone),
-  hacl(Zone, Host, Protocol, Port)</t>
   </si>
   <si>
     <t>Security Access</t>
@@ -1490,23 +1461,6 @@
     <t>If a victim node that is colocated in the same subnet as the attacker is using the ARP service for address resolution, the attacker may redirect and read (or sniff) the victim node’s traffic. These rules enable representation of an attacker node obtaining a victim node’s credentials if the victim node is using ARP and is using a login service on a remote subnet.</t>
   </si>
   <si>
-    <t>principalCompromised(Victim) :-
-  hasAccount(Victim, RemoteHost, User),
-  // Arp spoof works only if the victim and attacker are in the same subnet
-  attackerLocated(Subnet),
-  hacl(Subnet, H, _anyProtocol, _anyPort),
-  // Victim is using standard arp for address resolution
-  networkServiceInfo(H, arpd, _protocol, _port, _),
-  // The standard arpd protocol is vulnerable to spoofing
-  vulExists(H, arpSpoofVuln, arpd, remoteExploit, arpSpoof),
- // The User has an account on a login service on the remote host
-  logInService(RemoteHost, Protocol, Port),
-  // There is an active connection from the host to the remote machine
-  flowExists(H, RemoteHost, Protocol, Port, User).
-logInService(H, Protocol, Port) :-
-  networkServiceInfo(H, ftpd, Protocol, Port, _).</t>
-  </si>
-  <si>
     <t>Man-in-the-Middle 
 Network Sniffing (NB)
 Steal Application Access Token (NB)
@@ -1523,19 +1477,6 @@
   </si>
   <si>
     <t>The principal is compromised if it has an account, an active connection to a login service on a node, and OLSR is misconfigured. Route hijacking does not require the attacker to be located in the victim’s subnet.</t>
-  </si>
-  <si>
-    <t>principalCompromised(Victim) :-
-  // The victim has a user account on the remote host
-  hasAccount(Victim, RemoteHost, User),
-  // nrlolsr is being used
-  networkServiceInfo(H, nrlolsr, olsr, _no_port, _user),
- // nrlolsr is misconfigured allowing traffic hijacking
-  vulExists(H, nrlolsrVul, nrlolsr, remoteExploit, nrlolsrHijack),
-  // The User has an account on a login service on the remote host
-  logInService(RemoteHost, Protocol, Port),
-  // There is an active connection from the host to the remote machine
-  flowExists(H, RemoteHost, Protocol, Port, User).</t>
   </si>
   <si>
     <t>Man-in-the-Middle 
@@ -3229,12 +3170,66 @@
   <si>
     <t>Interaction Rules</t>
   </si>
+  <si>
+    <t>Derived, Complex</t>
+  </si>
+  <si>
+    <t>netAccess(Prin, Src, Dst, Protocol, Port) :-
+  execCode(Prin, Src, _User),
+  hacl(Src, Dst, Protocol, Port).</t>
+  </si>
+  <si>
+    <t>netAccess(Prin, Host, Protocol, Port) :-
+  located(Prin, Zone),
+  hacl(Zone, Host, Protocol, Port)</t>
+  </si>
+  <si>
+    <t>vulExists(Host, Prog, Range, Consequence):-
+  bugHyp(Host, Prog, Range, Consequence).</t>
+  </si>
+  <si>
+    <t>vulExists(Host, Prog, Range, Consequence):-
+  vulExists(Host, Library, Range, Consequence),
+  dependsOn(Host, Prog, Library).</t>
+  </si>
+  <si>
+    <t>execCode(Prin, Host, Perm) :-
+  hasAccount(Prin, Host, Perm).</t>
+  </si>
+  <si>
+    <t>vulExists(Host, Prog, Range, Consequence):-
+  vulExists(Host, ID, Prog),
+  vulProperty(ID, Range, Consequence).</t>
+  </si>
+  <si>
+    <t>principalCompromised(Victim) :-
+  hasAccount(Victim, RemoteHost, User),
+  attackerLocated(Subnet),
+  hacl(Subnet, H, _anyProtocol, _anyPort),
+  networkServiceInfo(H, arpd, _protocol, _port, _),
+  vulExists(H, arpSpoofVuln, arpd, remoteExploit, arpSpoof),
+  logInService(RemoteHost, Protocol, Port),
+  flowExists(H, RemoteHost, Protocol, Port, User).
+logInService(H, Protocol, Port) :-
+  networkServiceInfo(H, ftpd, Protocol, Port, _).</t>
+  </si>
+  <si>
+    <t>principalCompromised(Victim) :-
+  hasAccount(Victim, RemoteHost, User),
+  networkServiceInfo(H, nrlolsr, olsr, _no_port, _user),
+  vulExists(H, nrlolsrVul, nrlolsr, remoteExploit, nrlolsrHijack),
+  logInService(RemoteHost, Protocol, Port),
+  flowExists(H, RemoteHost, Protocol, Port, User).</t>
+  </si>
+  <si>
+    <t>Primitive, Complex</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3279,6 +3274,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3397,7 +3398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3447,6 +3448,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3714,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>5</v>
@@ -3727,17 +3734,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3755,11 +3762,11 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3773,10 +3780,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>785</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3790,10 +3797,10 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>786</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3804,17 +3811,17 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
@@ -3825,17 +3832,17 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
@@ -3846,21 +3853,21 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3869,21 +3876,21 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -3891,26 +3898,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>787</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3921,17 +3928,17 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -3943,13 +3950,13 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
@@ -3962,13 +3969,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
@@ -3981,17 +3988,17 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.2">
@@ -4002,17 +4009,17 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -4021,17 +4028,17 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
@@ -4042,17 +4049,17 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
@@ -4063,17 +4070,17 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="6"/>
@@ -4084,17 +4091,17 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
@@ -4105,17 +4112,17 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
@@ -4125,26 +4132,26 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -4155,13 +4162,13 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
@@ -4174,13 +4181,13 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -4193,13 +4200,13 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -4210,19 +4217,19 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
@@ -4236,10 +4243,10 @@
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="9"/>
@@ -4253,10 +4260,10 @@
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
@@ -4267,17 +4274,17 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
@@ -4288,19 +4295,19 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -4314,10 +4321,10 @@
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -4331,10 +4338,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4345,19 +4352,19 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -4371,10 +4378,10 @@
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -4388,10 +4395,10 @@
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -4402,19 +4409,19 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -4428,10 +4435,10 @@
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -4445,10 +4452,10 @@
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -4458,22 +4465,22 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="6"/>
@@ -4487,10 +4494,10 @@
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -4504,10 +4511,10 @@
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -4517,20 +4524,20 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -4544,10 +4551,10 @@
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -4558,17 +4565,17 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="6"/>
@@ -4579,19 +4586,19 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="6"/>
@@ -4603,14 +4610,14 @@
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="6"/>
@@ -4626,10 +4633,10 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="6"/>
@@ -4640,17 +4647,17 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="6"/>
@@ -4661,23 +4668,23 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -4686,17 +4693,17 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6"/>
@@ -4706,26 +4713,26 @@
         <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="23" t="s">
-        <v>129</v>
+      <c r="I50" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -4736,16 +4743,16 @@
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="24"/>
+      <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
@@ -4753,19 +4760,19 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="6"/>
@@ -4776,19 +4783,19 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="6"/>
@@ -4801,13 +4808,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="6"/>
@@ -4818,19 +4825,19 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="6"/>
@@ -4840,20 +4847,20 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="6"/>
@@ -4863,22 +4870,22 @@
         <v>26</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>151</v>
+        <v>783</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="6"/>
@@ -4892,10 +4899,10 @@
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
       <c r="F58" s="6" t="s">
-        <v>152</v>
+        <v>784</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="6"/>
@@ -4905,20 +4912,20 @@
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="6"/>
@@ -4928,20 +4935,20 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="6"/>
@@ -4952,17 +4959,17 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="6"/>
@@ -4972,20 +4979,20 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="6"/>
@@ -4996,55 +5003,55 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
+      <c r="A64" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>28</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -5057,13 +5064,13 @@
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -5076,13 +5083,13 @@
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -5095,13 +5102,13 @@
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -5112,19 +5119,19 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -5137,13 +5144,13 @@
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -5156,13 +5163,13 @@
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -5172,22 +5179,22 @@
         <v>35</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -5200,13 +5207,13 @@
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -5219,13 +5226,13 @@
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -5235,22 +5242,22 @@
         <v>38</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -5261,17 +5268,17 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -5284,13 +5291,13 @@
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -5303,13 +5310,13 @@
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -5322,13 +5329,13 @@
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -5341,13 +5348,13 @@
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -5358,19 +5365,19 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -5381,17 +5388,17 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -5404,13 +5411,13 @@
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -5420,22 +5427,22 @@
         <v>47</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -5448,13 +5455,13 @@
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -5465,19 +5472,19 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -5488,19 +5495,19 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -5513,13 +5520,13 @@
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -5532,13 +5539,13 @@
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
       <c r="E89" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -5551,13 +5558,13 @@
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -5568,19 +5575,19 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -5591,19 +5598,19 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -5614,19 +5621,19 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -5639,13 +5646,13 @@
       <c r="C94" s="6"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -5656,19 +5663,19 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -5678,20 +5685,20 @@
         <v>59</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -5704,13 +5711,13 @@
       <c r="C97" s="6"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -5723,13 +5730,13 @@
       <c r="C98" s="6"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -5740,19 +5747,19 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -5763,19 +5770,19 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -5786,19 +5793,19 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -5809,19 +5816,19 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -5834,13 +5841,13 @@
       <c r="C103" s="6"/>
       <c r="D103" s="3"/>
       <c r="E103" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -5853,13 +5860,13 @@
       <c r="C104" s="6"/>
       <c r="D104" s="3"/>
       <c r="E104" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -5872,13 +5879,13 @@
       <c r="C105" s="6"/>
       <c r="D105" s="3"/>
       <c r="E105" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -5891,13 +5898,13 @@
       <c r="C106" s="6"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -5910,13 +5917,13 @@
       <c r="C107" s="6"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -5927,19 +5934,19 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -5950,19 +5957,19 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -5975,13 +5982,13 @@
       <c r="C110" s="6"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -5994,13 +6001,13 @@
       <c r="C111" s="6"/>
       <c r="D111" s="3"/>
       <c r="E111" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -6011,19 +6018,19 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -6036,13 +6043,13 @@
       <c r="C113" s="6"/>
       <c r="D113" s="3"/>
       <c r="E113" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -6055,13 +6062,13 @@
       <c r="C114" s="6"/>
       <c r="D114" s="3"/>
       <c r="E114" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -6074,13 +6081,13 @@
       <c r="C115" s="6"/>
       <c r="D115" s="3"/>
       <c r="E115" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -6091,19 +6098,19 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -6114,19 +6121,19 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -6139,13 +6146,13 @@
       <c r="C118" s="6"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -6156,19 +6163,19 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -6179,19 +6186,19 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -6204,13 +6211,13 @@
       <c r="C121" s="6"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -6221,19 +6228,19 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -6246,13 +6253,13 @@
       <c r="C123" s="6"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -6265,29 +6272,29 @@
       <c r="C124" s="6"/>
       <c r="D124" s="3"/>
       <c r="E124" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="21"/>
+      <c r="A125" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="23"/>
     </row>
     <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
@@ -6295,19 +6302,19 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="6"/>
@@ -6318,19 +6325,19 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="6"/>
@@ -6344,10 +6351,10 @@
       <c r="D128" s="5"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="6"/>
@@ -6358,19 +6365,19 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="6"/>
@@ -6381,17 +6388,17 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="6"/>
@@ -6402,19 +6409,19 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="6"/>
@@ -6425,35 +6432,35 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="21"/>
+      <c r="A133" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="23"/>
     </row>
     <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
@@ -6461,19 +6468,19 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="6"/>
@@ -6484,33 +6491,33 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="21"/>
+      <c r="A136" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="23"/>
     </row>
     <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
@@ -6518,17 +6525,17 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -6539,17 +6546,17 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -6559,150 +6566,150 @@
         <v>96</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>97</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>12</v>
+        <v>362</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>782</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>98</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>790</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
     </row>
     <row r="142" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="21"/>
+      <c r="A142" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="23"/>
     </row>
     <row r="143" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>99</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>12</v>
+        <v>372</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>782</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
     </row>
     <row r="144" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A144" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="21"/>
+      <c r="A144" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="23"/>
     </row>
     <row r="145" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>100</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -6712,54 +6719,54 @@
         <v>101</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="21"/>
+      <c r="A147" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="23"/>
     </row>
     <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -6770,15 +6777,15 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -6789,19 +6796,19 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="4"/>
@@ -6811,18 +6818,18 @@
         <v>9</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -6833,19 +6840,19 @@
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="6" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="4"/>
@@ -6856,19 +6863,19 @@
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -6878,18 +6885,18 @@
         <v>9</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -6900,19 +6907,19 @@
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -6923,19 +6930,19 @@
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="6" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
@@ -6946,53 +6953,53 @@
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
     </row>
     <row r="158" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="21"/>
+      <c r="A158" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="23"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -7003,15 +7010,15 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
@@ -7022,15 +7029,15 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="6" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -7041,19 +7048,19 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="6" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -7064,19 +7071,19 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -7089,13 +7096,13 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -7108,13 +7115,13 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -7125,19 +7132,19 @@
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -7148,17 +7155,17 @@
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -7171,13 +7178,13 @@
       <c r="C168" s="6"/>
       <c r="D168" s="3"/>
       <c r="E168" s="6" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -7188,19 +7195,19 @@
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
@@ -7213,13 +7220,13 @@
       <c r="C170" s="4"/>
       <c r="D170" s="3"/>
       <c r="E170" s="6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -7230,19 +7237,19 @@
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="6" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -7255,47 +7262,47 @@
       <c r="C172" s="4"/>
       <c r="D172" s="3"/>
       <c r="E172" s="6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
     <row r="173" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="21"/>
+      <c r="A173" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="23"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -7306,15 +7313,15 @@
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
@@ -7325,15 +7332,15 @@
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
@@ -7344,15 +7351,15 @@
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
@@ -7363,15 +7370,15 @@
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="6" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -7382,15 +7389,15 @@
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -7401,15 +7408,15 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="6" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -7420,15 +7427,15 @@
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="6" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -7439,15 +7446,15 @@
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="6" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -7458,19 +7465,19 @@
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="6" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>12</v>
+        <v>782</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -7481,19 +7488,19 @@
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>12</v>
+        <v>456</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
@@ -7504,19 +7511,19 @@
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="6" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
@@ -7527,19 +7534,19 @@
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -7550,19 +7557,19 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -7576,10 +7583,10 @@
       <c r="D188" s="5"/>
       <c r="E188" s="4"/>
       <c r="F188" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -7590,19 +7597,19 @@
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="6" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -7615,13 +7622,13 @@
       <c r="C190" s="6"/>
       <c r="D190" s="3"/>
       <c r="E190" s="6" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -7632,19 +7639,19 @@
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -7657,13 +7664,13 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="6" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -7674,19 +7681,19 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="6" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
@@ -7699,13 +7706,13 @@
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="6" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -7718,13 +7725,13 @@
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
@@ -7737,13 +7744,13 @@
       <c r="C196" s="6"/>
       <c r="D196" s="5"/>
       <c r="E196" s="6" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
@@ -7756,13 +7763,13 @@
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -7775,13 +7782,13 @@
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -7792,19 +7799,19 @@
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="6" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -7817,13 +7824,13 @@
       <c r="C200" s="4"/>
       <c r="D200" s="5"/>
       <c r="E200" s="6" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
@@ -7836,13 +7843,13 @@
       <c r="C201" s="4"/>
       <c r="D201" s="5"/>
       <c r="E201" s="6" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
@@ -7855,13 +7862,13 @@
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
       <c r="E202" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
@@ -7874,13 +7881,13 @@
       <c r="C203" s="4"/>
       <c r="D203" s="5"/>
       <c r="E203" s="6" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -7891,19 +7898,19 @@
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
@@ -7916,13 +7923,13 @@
       <c r="C205" s="4"/>
       <c r="D205" s="5"/>
       <c r="E205" s="6" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
@@ -7933,19 +7940,19 @@
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="6" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
@@ -7958,13 +7965,13 @@
       <c r="C207" s="4"/>
       <c r="D207" s="5"/>
       <c r="E207" s="6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
@@ -7975,19 +7982,19 @@
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -8000,13 +8007,13 @@
       <c r="C209" s="4"/>
       <c r="D209" s="5"/>
       <c r="E209" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
@@ -8017,17 +8024,17 @@
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="6" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
@@ -8038,19 +8045,19 @@
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
@@ -8063,13 +8070,13 @@
       <c r="C212" s="4"/>
       <c r="D212" s="5"/>
       <c r="E212" s="6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -8080,19 +8087,19 @@
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="6" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
@@ -8105,13 +8112,13 @@
       <c r="C214" s="4"/>
       <c r="D214" s="5"/>
       <c r="E214" s="6" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
@@ -8122,19 +8129,19 @@
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
@@ -8145,19 +8152,19 @@
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="6" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
@@ -8168,19 +8175,19 @@
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="6" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
@@ -8193,13 +8200,13 @@
       <c r="C218" s="4"/>
       <c r="D218" s="5"/>
       <c r="E218" s="6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
@@ -8212,13 +8219,13 @@
       <c r="C219" s="4"/>
       <c r="D219" s="5"/>
       <c r="E219" s="6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
@@ -8229,19 +8236,19 @@
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
@@ -8254,13 +8261,13 @@
       <c r="C221" s="4"/>
       <c r="D221" s="5"/>
       <c r="E221" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
@@ -8273,13 +8280,13 @@
       <c r="C222" s="4"/>
       <c r="D222" s="5"/>
       <c r="E222" s="6" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
@@ -8292,13 +8299,13 @@
       <c r="C223" s="4"/>
       <c r="D223" s="5"/>
       <c r="E223" s="6" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
@@ -8311,13 +8318,13 @@
       <c r="C224" s="4"/>
       <c r="D224" s="5"/>
       <c r="E224" s="6" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
@@ -8330,13 +8337,13 @@
       <c r="C225" s="4"/>
       <c r="D225" s="5"/>
       <c r="E225" s="6" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
@@ -8347,19 +8354,19 @@
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="6" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
@@ -8372,13 +8379,13 @@
       <c r="C227" s="4"/>
       <c r="D227" s="5"/>
       <c r="E227" s="6" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
@@ -8391,13 +8398,13 @@
       <c r="C228" s="4"/>
       <c r="D228" s="5"/>
       <c r="E228" s="6" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
@@ -8410,13 +8417,13 @@
       <c r="C229" s="4"/>
       <c r="D229" s="5"/>
       <c r="E229" s="6" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
@@ -8429,13 +8436,13 @@
       <c r="C230" s="4"/>
       <c r="D230" s="5"/>
       <c r="E230" s="6" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
@@ -8448,13 +8455,13 @@
       <c r="C231" s="4"/>
       <c r="D231" s="5"/>
       <c r="E231" s="6" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
@@ -8465,19 +8472,19 @@
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="6" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
@@ -8490,13 +8497,13 @@
       <c r="C233" s="4"/>
       <c r="D233" s="5"/>
       <c r="E233" s="6" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
@@ -8509,13 +8516,13 @@
       <c r="C234" s="4"/>
       <c r="D234" s="5"/>
       <c r="E234" s="6" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
@@ -8528,13 +8535,13 @@
       <c r="C235" s="4"/>
       <c r="D235" s="5"/>
       <c r="E235" s="6" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
@@ -8547,13 +8554,13 @@
       <c r="C236" s="4"/>
       <c r="D236" s="5"/>
       <c r="E236" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
@@ -8566,87 +8573,87 @@
       <c r="C237" s="4"/>
       <c r="D237" s="5"/>
       <c r="E237" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A238" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="20"/>
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-      <c r="I238" s="21"/>
+      <c r="A238" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="22"/>
+      <c r="I238" s="23"/>
     </row>
     <row r="239" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A239" s="10">
         <v>171</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
     <row r="240" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A240" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="20"/>
-      <c r="E240" s="20"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="20"/>
-      <c r="I240" s="21"/>
+      <c r="A240" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="22"/>
+      <c r="I240" s="23"/>
     </row>
     <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
@@ -8657,17 +8664,17 @@
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="6" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
@@ -8678,17 +8685,17 @@
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="6" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
@@ -8699,17 +8706,17 @@
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
@@ -8720,17 +8727,17 @@
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="6" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
@@ -8741,17 +8748,17 @@
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
@@ -8762,17 +8769,17 @@
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
@@ -8783,17 +8790,17 @@
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="6" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
@@ -8804,19 +8811,19 @@
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="6" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
@@ -8827,19 +8834,19 @@
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="6" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
@@ -8850,19 +8857,19 @@
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
@@ -8873,19 +8880,19 @@
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
@@ -8899,46 +8906,46 @@
       <c r="D253" s="5"/>
       <c r="E253" s="4"/>
       <c r="F253" s="6" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
     </row>
     <row r="254" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A254" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="B254" s="20"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="20"/>
-      <c r="E254" s="20"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
-      <c r="H254" s="20"/>
-      <c r="I254" s="21"/>
+      <c r="A254" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="22"/>
+      <c r="I254" s="23"/>
     </row>
     <row r="255" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
@@ -8949,17 +8956,17 @@
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
@@ -8970,17 +8977,17 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="6" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
@@ -8991,19 +8998,19 @@
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="6" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
@@ -9016,13 +9023,13 @@
       <c r="C259" s="6"/>
       <c r="D259" s="3"/>
       <c r="E259" s="6" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
@@ -9033,15 +9040,17 @@
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>782</v>
+      </c>
       <c r="E260" s="6" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
@@ -9052,17 +9061,17 @@
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>12</v>
+        <v>632</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="E261" s="6"/>
       <c r="F261" s="6" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
@@ -9073,13 +9082,15 @@
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="6"/>
-      <c r="D262" s="3"/>
+      <c r="D262" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
@@ -9090,57 +9101,57 @@
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
     </row>
     <row r="264" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A264" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="B264" s="20"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="20"/>
-      <c r="E264" s="20"/>
-      <c r="F264" s="20"/>
-      <c r="G264" s="20"/>
-      <c r="H264" s="20"/>
-      <c r="I264" s="21"/>
+      <c r="A264" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
+      <c r="H264" s="22"/>
+      <c r="I264" s="23"/>
     </row>
     <row r="265" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A265" s="10">
         <v>178</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
@@ -9153,13 +9164,13 @@
       <c r="C266" s="6"/>
       <c r="D266" s="3"/>
       <c r="E266" s="6" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
@@ -9170,19 +9181,19 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="6" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
@@ -9195,51 +9206,51 @@
       <c r="C268" s="6"/>
       <c r="D268" s="3"/>
       <c r="E268" s="6" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
     </row>
     <row r="269" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A269" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="B269" s="20"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="20"/>
-      <c r="E269" s="20"/>
-      <c r="F269" s="20"/>
-      <c r="G269" s="20"/>
-      <c r="H269" s="20"/>
-      <c r="I269" s="21"/>
+      <c r="A269" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B269" s="22"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="23"/>
     </row>
     <row r="270" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>12</v>
+        <v>650</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
@@ -9250,13 +9261,15 @@
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="3"/>
+      <c r="D271" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="E271" s="6"/>
       <c r="F271" s="6" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
@@ -9267,19 +9280,19 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="6" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>12</v>
+        <v>782</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
@@ -9290,57 +9303,57 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="6" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
     </row>
     <row r="274" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="6" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F274" s="13"/>
       <c r="G274" s="13"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="6"/>
       <c r="D275" s="5" t="s">
-        <v>19</v>
+        <v>791</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
@@ -9351,15 +9364,17 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="6"/>
-      <c r="D276" s="3"/>
+      <c r="D276" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E276" s="6" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
@@ -9371,16 +9386,16 @@
       <c r="B277" s="11"/>
       <c r="C277" s="6"/>
       <c r="D277" s="5" t="s">
-        <v>19</v>
+        <v>791</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
@@ -9391,15 +9406,17 @@
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="6"/>
-      <c r="D278" s="3"/>
+      <c r="D278" s="19" t="s">
+        <v>782</v>
+      </c>
       <c r="E278" s="6" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
@@ -9412,13 +9429,13 @@
       <c r="C279" s="6"/>
       <c r="D279" s="3"/>
       <c r="E279" s="6" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
@@ -9429,34 +9446,34 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="6" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F280" s="4"/>
       <c r="G280" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
     </row>
     <row r="281" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="6" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F281" s="14"/>
       <c r="G281" s="13"/>
@@ -9471,13 +9488,13 @@
       <c r="C282" s="6"/>
       <c r="D282" s="3"/>
       <c r="E282" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
@@ -9490,13 +9507,13 @@
       <c r="C283" s="6"/>
       <c r="D283" s="3"/>
       <c r="E283" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
@@ -9509,13 +9526,13 @@
       <c r="C284" s="6"/>
       <c r="D284" s="3"/>
       <c r="E284" s="6" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
@@ -9528,13 +9545,13 @@
       <c r="C285" s="6"/>
       <c r="D285" s="3"/>
       <c r="E285" s="6" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
@@ -9547,13 +9564,13 @@
       <c r="C286" s="6"/>
       <c r="D286" s="3"/>
       <c r="E286" s="6" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
@@ -9563,20 +9580,20 @@
         <v>9</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
@@ -9587,17 +9604,17 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="6" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
@@ -9608,19 +9625,19 @@
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="6" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
@@ -9631,19 +9648,19 @@
       </c>
       <c r="B290" s="11"/>
       <c r="C290" s="6" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
@@ -9654,19 +9671,19 @@
       </c>
       <c r="B291" s="11"/>
       <c r="C291" s="6" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
@@ -9677,19 +9694,19 @@
       </c>
       <c r="B292" s="11"/>
       <c r="C292" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>12</v>
+        <v>699</v>
+      </c>
+      <c r="D292" s="19" t="s">
+        <v>782</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
@@ -9700,19 +9717,19 @@
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="6" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
@@ -9723,19 +9740,19 @@
       </c>
       <c r="B294" s="11"/>
       <c r="C294" s="6" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
@@ -9746,19 +9763,19 @@
       </c>
       <c r="B295" s="11"/>
       <c r="C295" s="6" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
@@ -9769,19 +9786,19 @@
       </c>
       <c r="B296" s="11"/>
       <c r="C296" s="6" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
@@ -9792,55 +9809,55 @@
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="6" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
     </row>
     <row r="298" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A298" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="B298" s="20"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="20"/>
-      <c r="E298" s="20"/>
-      <c r="F298" s="20"/>
-      <c r="G298" s="20"/>
-      <c r="H298" s="20"/>
-      <c r="I298" s="21"/>
+      <c r="A298" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="B298" s="22"/>
+      <c r="C298" s="22"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="22"/>
+      <c r="I298" s="23"/>
     </row>
     <row r="299" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A299" s="10">
         <v>190</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>12</v>
+        <v>782</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
@@ -9851,13 +9868,15 @@
       </c>
       <c r="B300" s="11"/>
       <c r="C300" s="6"/>
-      <c r="D300" s="3"/>
+      <c r="D300" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="E300" s="6"/>
       <c r="F300" s="6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
@@ -9868,57 +9887,57 @@
       </c>
       <c r="B301" s="11"/>
       <c r="C301" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>12</v>
+        <v>723</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
     </row>
     <row r="302" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A302" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="B302" s="20"/>
-      <c r="C302" s="20"/>
-      <c r="D302" s="20"/>
-      <c r="E302" s="20"/>
-      <c r="F302" s="20"/>
-      <c r="G302" s="20"/>
-      <c r="H302" s="20"/>
-      <c r="I302" s="21"/>
+      <c r="A302" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="B302" s="22"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+      <c r="H302" s="22"/>
+      <c r="I302" s="23"/>
     </row>
     <row r="303" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A303" s="10">
         <v>193</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
@@ -9931,13 +9950,13 @@
       <c r="C304" s="6"/>
       <c r="D304" s="3"/>
       <c r="E304" s="6" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
@@ -9947,40 +9966,40 @@
         <v>9</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
+      </c>
+      <c r="D305" s="19" t="s">
+        <v>735</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H305" s="6" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="I305" s="4"/>
     </row>
     <row r="306" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A306" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="20"/>
-      <c r="D306" s="20"/>
-      <c r="E306" s="20"/>
-      <c r="F306" s="20"/>
-      <c r="G306" s="20"/>
-      <c r="H306" s="20"/>
-      <c r="I306" s="21"/>
+      <c r="A306" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="22"/>
+      <c r="I306" s="23"/>
     </row>
     <row r="307" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
@@ -9988,22 +10007,22 @@
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="6" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D307" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="F307" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E307" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="F307" s="6" t="s">
-        <v>751</v>
-      </c>
       <c r="G307" s="6" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="I307" s="4"/>
     </row>
@@ -10013,35 +10032,35 @@
       </c>
       <c r="B308" s="11"/>
       <c r="C308" s="6" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
     </row>
     <row r="309" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A309" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="B309" s="20"/>
-      <c r="C309" s="20"/>
-      <c r="D309" s="20"/>
-      <c r="E309" s="20"/>
-      <c r="F309" s="20"/>
-      <c r="G309" s="20"/>
-      <c r="H309" s="20"/>
-      <c r="I309" s="21"/>
+      <c r="A309" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="B309" s="22"/>
+      <c r="C309" s="22"/>
+      <c r="D309" s="22"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+      <c r="H309" s="22"/>
+      <c r="I309" s="23"/>
     </row>
     <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
@@ -10049,19 +10068,19 @@
       </c>
       <c r="B310" s="16"/>
       <c r="C310" s="17" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E310" s="18" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H310" s="16"/>
       <c r="I310" s="9"/>
@@ -10074,13 +10093,13 @@
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
       <c r="E311" s="18" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H311" s="16"/>
       <c r="I311" s="9"/>
@@ -10091,19 +10110,19 @@
       </c>
       <c r="B312" s="16"/>
       <c r="C312" s="17" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E312" s="18" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H312" s="16"/>
       <c r="I312" s="9"/>
@@ -10116,13 +10135,13 @@
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
       <c r="E313" s="18" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H313" s="16"/>
       <c r="I313" s="9"/>
@@ -10133,19 +10152,19 @@
       </c>
       <c r="B314" s="16"/>
       <c r="C314" s="17" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H314" s="16"/>
       <c r="I314" s="9"/>
@@ -10158,13 +10177,13 @@
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
       <c r="E315" s="18" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H315" s="16"/>
       <c r="I315" s="9"/>
@@ -10175,19 +10194,19 @@
       </c>
       <c r="B316" s="16"/>
       <c r="C316" s="17" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E316" s="18" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H316" s="16"/>
       <c r="I316" s="9"/>
@@ -10198,19 +10217,19 @@
       </c>
       <c r="B317" s="16"/>
       <c r="C317" s="17" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E317" s="18" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G317" s="17" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="H317" s="16"/>
       <c r="I317" s="9"/>
@@ -11014,6 +11033,6 @@
     <mergeCell ref="A302:I302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>